--- a/vs1053shield_v2/vs1053shield_v2_BOM_aliexpress.xlsx
+++ b/vs1053shield_v2/vs1053shield_v2_BOM_aliexpress.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">https://aliexpress.com/item/1005001285303177.html?sku_id=12000015576982226</t>
   </si>
   <si>
-    <t xml:space="preserve">R2, R8, R9</t>
+    <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
@@ -175,7 +175,23 @@
     <t xml:space="preserve">https://aliexpress.com/item/1005001285303177.html?sku_id=12000015576982178</t>
   </si>
   <si>
-    <t xml:space="preserve">R3, R5</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">R3, R5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, R8, R9</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100k</t>
@@ -267,11 +283,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -290,6 +307,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -471,12 +494,12 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.91"/>
@@ -768,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>48</v>
@@ -783,12 +806,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>51</v>
